--- a/raw_data/20200818_saline/20200818_Sensor1_Test_4.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_4.xlsx
@@ -1,765 +1,1181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289348C-CC06-4D9F-9239-8E74323EB649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>2885.999666</v>
+        <v>2885.9996660000002</v>
       </c>
       <c r="B2" s="1">
-        <v>0.801667</v>
+        <v>0.80166700000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>896.433000</v>
+        <v>896.43299999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.355000</v>
+        <v>-199.35499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2896.374980</v>
+        <v>2896.3749800000001</v>
       </c>
       <c r="G2" s="1">
-        <v>0.804549</v>
+        <v>0.80454899999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>914.576000</v>
+        <v>914.57600000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.894000</v>
+        <v>-168.89400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2906.766664</v>
+        <v>2906.7666640000002</v>
       </c>
       <c r="L2" s="1">
-        <v>0.807435</v>
+        <v>0.80743500000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>938.294000</v>
+        <v>938.29399999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.684000</v>
+        <v>-119.684</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>2917.215384</v>
+        <v>2917.2153840000001</v>
       </c>
       <c r="Q2" s="1">
         <v>0.810338</v>
       </c>
       <c r="R2" s="1">
-        <v>945.068000</v>
+        <v>945.06799999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.329000</v>
+        <v>-103.32899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>2927.778188</v>
+        <v>2927.7781880000002</v>
       </c>
       <c r="V2" s="1">
-        <v>0.813272</v>
+        <v>0.81327199999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>951.595000</v>
+        <v>951.59500000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.149400</v>
+        <v>-88.1494</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2938.216493</v>
+        <v>2938.2164929999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.816171</v>
+        <v>0.81617099999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.730000</v>
+        <v>958.73</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.249100</v>
+        <v>-76.249099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>2949.111646</v>
+        <v>2949.1116459999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.819198</v>
+        <v>0.81919799999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.419000</v>
+        <v>963.41899999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-73.815800</v>
+        <v>-73.815799999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2959.340609</v>
+        <v>2959.3406089999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.822039</v>
+        <v>0.82203899999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.497000</v>
+        <v>970.49699999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.155900</v>
+        <v>-78.155900000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>2969.588947</v>
+        <v>2969.5889470000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.824886</v>
+        <v>0.82488600000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.410000</v>
+        <v>978.41</v>
       </c>
       <c r="AR2" s="1">
-        <v>-89.177100</v>
+        <v>-89.177099999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>2980.611045</v>
+        <v>2980.6110450000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.827948</v>
+        <v>0.82794800000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>987.968000</v>
+        <v>987.96799999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-106.350000</v>
+        <v>-106.35</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>2991.394071</v>
+        <v>2991.3940710000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.830943</v>
+        <v>0.83094299999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>995.935000</v>
+        <v>995.93499999999995</v>
       </c>
       <c r="BB2" s="1">
-        <v>-121.352000</v>
+        <v>-121.352</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>3002.309064</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.833975</v>
+        <v>0.83397500000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG2" s="1">
-        <v>-191.283000</v>
+        <v>-191.28299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>3013.345545</v>
+        <v>3013.3455450000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.837040</v>
+        <v>0.83704000000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1096.550000</v>
+        <v>1096.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-305.975000</v>
+        <v>-305.97500000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>3024.076459</v>
+        <v>3024.0764589999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.840021</v>
+        <v>0.84002100000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1200.490000</v>
+        <v>1200.49</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.819000</v>
+        <v>-488.81900000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>3034.109065</v>
+        <v>3034.1090650000001</v>
       </c>
       <c r="BT2" s="1">
         <v>0.842808</v>
       </c>
       <c r="BU2" s="1">
-        <v>1318.940000</v>
+        <v>1318.94</v>
       </c>
       <c r="BV2" s="1">
-        <v>-690.724000</v>
+        <v>-690.72400000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>3044.794352</v>
+        <v>3044.7943519999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.845776</v>
+        <v>0.84577599999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-906.543000</v>
+        <v>-906.54300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>3055.867537</v>
+        <v>3055.8675370000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.848852</v>
+        <v>0.84885200000000005</v>
       </c>
       <c r="CE2" s="1">
-        <v>1806.040000</v>
+        <v>1806.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1419.930000</v>
+        <v>-1419.93</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>2886.398449</v>
+        <v>2886.3984489999998</v>
       </c>
       <c r="B3" s="1">
-        <v>0.801777</v>
+        <v>0.80177699999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>896.427000</v>
+        <v>896.42700000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.461000</v>
+        <v>-199.46100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>2896.721189</v>
+        <v>2896.7211889999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.804645</v>
+        <v>0.80464500000000005</v>
       </c>
       <c r="H3" s="1">
-        <v>914.509000</v>
+        <v>914.50900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.910000</v>
+        <v>-168.91</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>2907.113366</v>
@@ -768,814 +1184,814 @@
         <v>0.807531</v>
       </c>
       <c r="M3" s="1">
-        <v>938.086000</v>
+        <v>938.08600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.722000</v>
+        <v>-119.72199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2917.581928</v>
+        <v>2917.5819280000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.810439</v>
+        <v>0.81043900000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>945.063000</v>
+        <v>945.06299999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.349000</v>
+        <v>-103.349</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>2928.446299</v>
+        <v>2928.4462990000002</v>
       </c>
       <c r="V3" s="1">
-        <v>0.813457</v>
+        <v>0.81345699999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>951.677000</v>
+        <v>951.67700000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.120600</v>
+        <v>-88.120599999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>2938.907453</v>
+        <v>2938.9074529999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.816363</v>
+        <v>0.81636299999999995</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.843000</v>
+        <v>958.84299999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.237500</v>
+        <v>-76.237499999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>2949.505943</v>
+        <v>2949.5059430000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.819307</v>
+        <v>0.81930700000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.367000</v>
+        <v>963.36699999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-73.825500</v>
+        <v>-73.825500000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>2959.693296</v>
+        <v>2959.6932959999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.822137</v>
+        <v>0.82213700000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.492000</v>
+        <v>970.49199999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.123000</v>
+        <v>-78.123000000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>2969.954499</v>
+        <v>2969.9544989999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.824987</v>
+        <v>0.82498700000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.420000</v>
+        <v>978.42</v>
       </c>
       <c r="AR3" s="1">
-        <v>-89.177600</v>
+        <v>-89.177599999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>2980.991477</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.828053</v>
+        <v>0.82805300000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>987.942000</v>
+        <v>987.94200000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-106.333000</v>
+        <v>-106.333</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>2991.773510</v>
+        <v>2991.77351</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.831048</v>
+        <v>0.83104800000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>995.930000</v>
+        <v>995.93</v>
       </c>
       <c r="BB3" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>3002.728151</v>
+        <v>3002.7281509999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.834091</v>
+        <v>0.83409100000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-191.299000</v>
+        <v>-191.29900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>3013.454634</v>
+        <v>3013.4546340000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.837071</v>
+        <v>0.83707100000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1096.560000</v>
+        <v>1096.56</v>
       </c>
       <c r="BL3" s="1">
-        <v>-306.046000</v>
+        <v>-306.04599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>3024.190075</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.840053</v>
+        <v>0.84005300000000005</v>
       </c>
       <c r="BP3" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.847000</v>
+        <v>-488.84699999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>3034.570351</v>
+        <v>3034.5703509999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.842936</v>
+        <v>0.84293600000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1318.950000</v>
+        <v>1318.95</v>
       </c>
       <c r="BV3" s="1">
-        <v>-690.784000</v>
+        <v>-690.78399999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>3045.272992</v>
+        <v>3045.2729920000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.845909</v>
+        <v>0.84590900000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1452.040000</v>
+        <v>1452.04</v>
       </c>
       <c r="CA3" s="1">
-        <v>-906.552000</v>
+        <v>-906.55200000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>3056.462241</v>
+        <v>3056.4622410000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.849017</v>
+        <v>0.84901700000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1804.520000</v>
+        <v>1804.52</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1419.350000</v>
+        <v>-1419.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>2886.732257</v>
+        <v>2886.7322570000001</v>
       </c>
       <c r="B4" s="1">
-        <v>0.801870</v>
+        <v>0.80186999999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>896.381000</v>
+        <v>896.38099999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.461000</v>
+        <v>-199.46100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2897.066933</v>
+        <v>2897.0669330000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.804741</v>
+        <v>0.80474100000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>914.607000</v>
+        <v>914.60699999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.003000</v>
+        <v>-169.00299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2907.457094</v>
+        <v>2907.4570939999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.807627</v>
+        <v>0.80762699999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>938.177000</v>
+        <v>938.17700000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.617000</v>
+        <v>-119.617</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2918.233673</v>
+        <v>2918.2336730000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.810620</v>
+        <v>0.81062000000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>945.005000</v>
+        <v>945.005</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.325000</v>
+        <v>-103.325</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>2928.828745</v>
+        <v>2928.8287449999998</v>
       </c>
       <c r="V4" s="1">
-        <v>0.813564</v>
+        <v>0.81356399999999995</v>
       </c>
       <c r="W4" s="1">
-        <v>951.646000</v>
+        <v>951.64599999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.174300</v>
+        <v>-88.174300000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>2939.297771</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.816472</v>
+        <v>0.81647199999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.719000</v>
+        <v>958.71900000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.375000</v>
+        <v>-76.375</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>2949.852637</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.819404</v>
+        <v>0.81940400000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.418000</v>
+        <v>963.41800000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-73.836300</v>
+        <v>-73.836299999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>2960.040496</v>
+        <v>2960.0404960000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.822233</v>
+        <v>0.82223299999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.494000</v>
+        <v>970.49400000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.126600</v>
+        <v>-78.126599999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>2970.313602</v>
+        <v>2970.3136020000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.825087</v>
+        <v>0.82508700000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.399000</v>
+        <v>978.399</v>
       </c>
       <c r="AR4" s="1">
-        <v>-89.191300</v>
+        <v>-89.191299999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>2981.408612</v>
+        <v>2981.4086120000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.828169</v>
+        <v>0.82816900000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>987.972000</v>
+        <v>987.97199999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-106.369000</v>
+        <v>-106.369</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>2992.491221</v>
+        <v>2992.4912210000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.831248</v>
+        <v>0.83124799999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>995.934000</v>
+        <v>995.93399999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-121.324000</v>
+        <v>-121.324</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>3003.049559</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.834180</v>
+        <v>0.83418000000000003</v>
       </c>
       <c r="BF4" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG4" s="1">
-        <v>-191.281000</v>
+        <v>-191.28100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>3013.820221</v>
+        <v>3013.8202209999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.837172</v>
+        <v>0.83717200000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL4" s="1">
-        <v>-306.033000</v>
+        <v>-306.03300000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>3024.617595</v>
+        <v>3024.6175950000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.840172</v>
+        <v>0.84017200000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.854000</v>
+        <v>-488.85399999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>3034.986462</v>
+        <v>3034.9864619999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.843052</v>
+        <v>0.84305200000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1318.880000</v>
+        <v>1318.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-690.785000</v>
+        <v>-690.78499999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>3045.706495</v>
+        <v>3045.7064949999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.846030</v>
+        <v>0.84602999999999995</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="CA4" s="1">
-        <v>-906.469000</v>
+        <v>-906.46900000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>3057.002880</v>
+        <v>3057.00288</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.849167</v>
+        <v>0.84916700000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1805.230000</v>
+        <v>1805.23</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1421.430000</v>
+        <v>-1421.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>2887.075984</v>
+        <v>2887.0759840000001</v>
       </c>
       <c r="B5" s="1">
-        <v>0.801966</v>
+        <v>0.80196599999999996</v>
       </c>
       <c r="C5" s="1">
-        <v>896.423000</v>
+        <v>896.423</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.446000</v>
+        <v>-199.446</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>2897.712194</v>
+        <v>2897.7121940000002</v>
       </c>
       <c r="G5" s="1">
-        <v>0.804920</v>
+        <v>0.80491999999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>914.706000</v>
+        <v>914.70600000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.724000</v>
+        <v>-168.72399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2908.125205</v>
+        <v>2908.1252049999998</v>
       </c>
       <c r="L5" s="1">
         <v>0.807813</v>
       </c>
       <c r="M5" s="1">
-        <v>937.976000</v>
+        <v>937.976</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.861000</v>
+        <v>-119.861</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>2918.630968</v>
+        <v>2918.6309679999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.810731</v>
+        <v>0.81073099999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>945.008000</v>
+        <v>945.00800000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.357000</v>
+        <v>-103.357</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>2929.172937</v>
+        <v>2929.1729369999998</v>
       </c>
       <c r="V5" s="1">
-        <v>0.813659</v>
+        <v>0.81365900000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>951.616000</v>
+        <v>951.61599999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.102500</v>
+        <v>-88.102500000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>2939.648443</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.816569</v>
+        <v>0.81656899999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.742000</v>
+        <v>958.74199999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.174800</v>
+        <v>-76.174800000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>2950.193922</v>
+        <v>2950.1939219999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.819498</v>
+        <v>0.81949799999999995</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.414000</v>
+        <v>963.41399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-73.792500</v>
+        <v>-73.792500000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2960.451680</v>
+        <v>2960.4516800000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.822348</v>
+        <v>0.82234799999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.492000</v>
+        <v>970.49199999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.143700</v>
+        <v>-78.143699999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>2970.740698</v>
+        <v>2970.7406980000001</v>
       </c>
       <c r="AP5" s="1">
         <v>0.825206</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.410000</v>
+        <v>978.41</v>
       </c>
       <c r="AR5" s="1">
-        <v>-89.185600</v>
+        <v>-89.185599999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>2981.721587</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.828256</v>
+        <v>0.82825599999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>987.948000</v>
+        <v>987.94799999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-106.331000</v>
+        <v>-106.331</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>2992.850325</v>
+        <v>2992.8503249999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.831347</v>
+        <v>0.83134699999999995</v>
       </c>
       <c r="BA5" s="1">
-        <v>995.934000</v>
+        <v>995.93399999999997</v>
       </c>
       <c r="BB5" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>3003.411174</v>
+        <v>3003.4111739999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.834281</v>
+        <v>0.83428100000000005</v>
       </c>
       <c r="BF5" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-191.298000</v>
+        <v>-191.298</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>3014.193192</v>
+        <v>3014.1931920000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.837276</v>
+        <v>0.83727600000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-306.004000</v>
+        <v>-306.00400000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>3025.018362</v>
+        <v>3025.0183619999998</v>
       </c>
       <c r="BO5" s="1">
         <v>0.840283</v>
       </c>
       <c r="BP5" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.858000</v>
+        <v>-488.858</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>3035.405580</v>
+        <v>3035.4055800000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.843168</v>
+        <v>0.84316800000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1318.940000</v>
+        <v>1318.94</v>
       </c>
       <c r="BV5" s="1">
-        <v>-690.823000</v>
+        <v>-690.82299999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>3046.126110</v>
+        <v>3046.1261100000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.846146</v>
+        <v>0.84614599999999995</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="CA5" s="1">
-        <v>-906.543000</v>
+        <v>-906.54300000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>3057.544015</v>
+        <v>3057.5440149999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.849318</v>
+        <v>0.84931800000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1805.760000</v>
+        <v>1805.76</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1419.210000</v>
+        <v>-1419.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>2887.724751</v>
+        <v>2887.7247510000002</v>
       </c>
       <c r="B6" s="1">
-        <v>0.802146</v>
+        <v>0.80214600000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>896.415000</v>
+        <v>896.41499999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.466000</v>
+        <v>-199.46600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2898.099570</v>
+        <v>2898.0995699999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.805028</v>
+        <v>0.80502799999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>914.445000</v>
+        <v>914.44500000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.230000</v>
+        <v>-169.23</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2908.493237</v>
+        <v>2908.4932370000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.807915</v>
+        <v>0.80791500000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>938.236000</v>
+        <v>938.23599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.697000</v>
+        <v>-119.697</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>2918.975687</v>
+        <v>2918.9756870000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.810827</v>
+        <v>0.81082699999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>945.033000</v>
+        <v>945.03300000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.290000</v>
+        <v>-103.29</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>2929.518152</v>
+        <v>2929.5181520000001</v>
       </c>
       <c r="V6" s="1">
-        <v>0.813755</v>
+        <v>0.81375500000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>951.615000</v>
+        <v>951.61500000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.114100</v>
+        <v>-88.114099999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>2939.997163</v>
@@ -1584,1071 +2000,1071 @@
         <v>0.816666</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.866000</v>
+        <v>958.86599999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.375000</v>
+        <v>-76.375</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>2950.616484</v>
+        <v>2950.6164840000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.819616</v>
+        <v>0.81961600000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.386000</v>
+        <v>963.38599999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-73.841900</v>
+        <v>-73.841899999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>2960.737345</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.822427</v>
+        <v>0.82242700000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.500000</v>
+        <v>970.5</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.121500</v>
+        <v>-78.121499999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>2971.037068</v>
+        <v>2971.0370680000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.825288</v>
+        <v>0.82528800000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.398000</v>
+        <v>978.39800000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-89.175600</v>
+        <v>-89.175600000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>2982.086147</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.828357</v>
+        <v>0.82835700000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>987.967000</v>
+        <v>987.96699999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-106.331000</v>
+        <v>-106.331</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>2993.208964</v>
+        <v>2993.2089639999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.831447</v>
+        <v>0.83144700000000005</v>
       </c>
       <c r="BA6" s="1">
-        <v>995.965000</v>
+        <v>995.96500000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-121.326000</v>
+        <v>-121.32599999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>3003.773222</v>
+        <v>3003.7732219999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.834381</v>
+        <v>0.83438100000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG6" s="1">
-        <v>-191.269000</v>
+        <v>-191.26900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>3014.943165</v>
+        <v>3014.9431650000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.837484</v>
+        <v>0.83748400000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1096.540000</v>
+        <v>1096.54</v>
       </c>
       <c r="BL6" s="1">
-        <v>-306.011000</v>
+        <v>-306.01100000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>3025.437979</v>
+        <v>3025.4379789999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.840399</v>
+        <v>0.84039900000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1200.520000</v>
+        <v>1200.52</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.870000</v>
+        <v>-488.87</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>3035.813293</v>
+        <v>3035.8132930000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.843281</v>
+        <v>0.84328099999999995</v>
       </c>
       <c r="BU6" s="1">
-        <v>1318.950000</v>
+        <v>1318.95</v>
       </c>
       <c r="BV6" s="1">
-        <v>-690.868000</v>
+        <v>-690.86800000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>3046.548702</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.846264</v>
+        <v>0.84626400000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="CA6" s="1">
-        <v>-906.574000</v>
+        <v>-906.57399999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>3058.087134</v>
+        <v>3058.0871339999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.849469</v>
+        <v>0.84946900000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>1804.470000</v>
+        <v>1804.47</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1420.280000</v>
+        <v>-1420.28</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>2888.097284</v>
+        <v>2888.0972839999999</v>
       </c>
       <c r="B7" s="1">
-        <v>0.802249</v>
+        <v>0.80224899999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>896.404000</v>
+        <v>896.404</v>
       </c>
       <c r="D7" s="1">
-        <v>-199.549000</v>
+        <v>-199.54900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2898.445319</v>
+        <v>2898.4453189999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.805124</v>
+        <v>0.80512399999999995</v>
       </c>
       <c r="H7" s="1">
-        <v>914.452000</v>
+        <v>914.452</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.972000</v>
+        <v>-168.97200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2908.842422</v>
+        <v>2908.8424220000002</v>
       </c>
       <c r="L7" s="1">
-        <v>0.808012</v>
+        <v>0.80801199999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>938.259000</v>
+        <v>938.25900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.691000</v>
+        <v>-119.691</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>2919.325896</v>
+        <v>2919.3258959999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.810924</v>
+        <v>0.81092399999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>945.042000</v>
+        <v>945.04200000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>2929.934296</v>
+        <v>2929.9342959999999</v>
       </c>
       <c r="V7" s="1">
-        <v>0.813871</v>
+        <v>0.81387100000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>951.615000</v>
+        <v>951.61500000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.103100</v>
+        <v>-88.103099999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>2940.413275</v>
+        <v>2940.4132749999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.816781</v>
+        <v>0.81678099999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.687000</v>
+        <v>958.68700000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.331700</v>
+        <v>-76.331699999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>2950.888289</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.819691</v>
+        <v>0.81969099999999995</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.416000</v>
+        <v>963.41600000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-73.840700</v>
+        <v>-73.840699999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>2961.088016</v>
+        <v>2961.0880160000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.822524</v>
+        <v>0.82252400000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.503000</v>
+        <v>970.50300000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.106900</v>
+        <v>-78.106899999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>2971.393889</v>
+        <v>2971.3938889999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.825387</v>
+        <v>0.82538699999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.433000</v>
+        <v>978.43299999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-89.178400</v>
+        <v>-89.178399999999996</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>2982.451698</v>
+        <v>2982.4516979999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.828459</v>
+        <v>0.82845899999999995</v>
       </c>
       <c r="AV7" s="1">
-        <v>987.964000</v>
+        <v>987.96400000000006</v>
       </c>
       <c r="AW7" s="1">
-        <v>-106.335000</v>
+        <v>-106.33499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>2993.926147</v>
+        <v>2993.9261470000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.831646</v>
       </c>
       <c r="BA7" s="1">
-        <v>995.979000</v>
+        <v>995.97900000000004</v>
       </c>
       <c r="BB7" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>3004.496389</v>
+        <v>3004.4963889999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.834582</v>
+        <v>0.83458200000000005</v>
       </c>
       <c r="BF7" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG7" s="1">
-        <v>-191.264000</v>
+        <v>-191.26400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>3015.318599</v>
+        <v>3015.3185990000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>0.837588</v>
       </c>
       <c r="BK7" s="1">
-        <v>1096.560000</v>
+        <v>1096.56</v>
       </c>
       <c r="BL7" s="1">
-        <v>-306.012000</v>
+        <v>-306.012</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>3025.834777</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.840510</v>
+        <v>0.84050999999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.875000</v>
+        <v>-488.875</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>3036.252747</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.843404</v>
+        <v>0.84340400000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1318.920000</v>
+        <v>1318.92</v>
       </c>
       <c r="BV7" s="1">
-        <v>-690.850000</v>
+        <v>-690.85</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>3047.278316</v>
+        <v>3047.2783159999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.846466</v>
+        <v>0.84646600000000005</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1452.040000</v>
+        <v>1452.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-906.549000</v>
+        <v>-906.54899999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>3058.971534</v>
+        <v>3058.9715339999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.849714</v>
+        <v>0.84971399999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1805.480000</v>
+        <v>1805.48</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1419.590000</v>
+        <v>-1419.59</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>2888.440478</v>
       </c>
       <c r="B8" s="1">
-        <v>0.802345</v>
+        <v>0.80234499999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>896.363000</v>
+        <v>896.36300000000006</v>
       </c>
       <c r="D8" s="1">
-        <v>-199.539000</v>
+        <v>-199.53899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>2898.789010</v>
+        <v>2898.78901</v>
       </c>
       <c r="G8" s="1">
-        <v>0.805219</v>
+        <v>0.80521900000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>914.501000</v>
+        <v>914.50099999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.945000</v>
+        <v>-168.94499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2909.439636</v>
+        <v>2909.4396360000001</v>
       </c>
       <c r="L8" s="1">
-        <v>0.808178</v>
+        <v>0.80817799999999995</v>
       </c>
       <c r="M8" s="1">
-        <v>938.258000</v>
+        <v>938.25800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.912000</v>
+        <v>-119.91200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2919.747499</v>
+        <v>2919.7474990000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.811041</v>
+        <v>0.81104100000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>945.056000</v>
+        <v>945.05600000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>2930.221975</v>
+        <v>2930.2219749999999</v>
       </c>
       <c r="V8" s="1">
-        <v>0.813951</v>
+        <v>0.81395099999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>951.728000</v>
+        <v>951.72799999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.143000</v>
+        <v>-88.143000000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>2940.695002</v>
+        <v>2940.6950019999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.816860</v>
+        <v>0.81686000000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.686000</v>
+        <v>958.68600000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.233300</v>
+        <v>-76.2333</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>2951.230524</v>
+        <v>2951.2305240000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.819786</v>
+        <v>0.81978600000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.366000</v>
+        <v>963.36599999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-73.838000</v>
+        <v>-73.837999999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2961.438010</v>
+        <v>2961.4380099999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.822622</v>
+        <v>0.82262199999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.496000</v>
+        <v>970.49599999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.112700</v>
+        <v>-78.112700000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>2971.753812</v>
+        <v>2971.7538119999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.825487</v>
+        <v>0.82548699999999997</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.410000</v>
+        <v>978.41</v>
       </c>
       <c r="AR8" s="1">
-        <v>-89.191400</v>
+        <v>-89.191400000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>2983.180817</v>
+        <v>2983.1808169999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.828661</v>
+        <v>0.82866099999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>987.981000</v>
+        <v>987.98099999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-106.324000</v>
+        <v>-106.324</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>2994.284259</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.831746</v>
+        <v>0.83174599999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>995.961000</v>
+        <v>995.96100000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-121.320000</v>
+        <v>-121.32</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>3004.881782</v>
+        <v>3004.8817819999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.834689</v>
+        <v>0.83468900000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG8" s="1">
-        <v>-191.279000</v>
+        <v>-191.279</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>3015.694566</v>
+        <v>3015.6945660000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.837693</v>
+        <v>0.83769300000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1096.540000</v>
+        <v>1096.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-306.023000</v>
+        <v>-306.02300000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>3026.560920</v>
+        <v>3026.5609199999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.840711</v>
+        <v>0.84071099999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1200.450000</v>
+        <v>1200.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.924000</v>
+        <v>-488.92399999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>3036.990826</v>
+        <v>3036.9908260000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.843609</v>
+        <v>0.84360900000000005</v>
       </c>
       <c r="BU8" s="1">
-        <v>1318.870000</v>
+        <v>1318.87</v>
       </c>
       <c r="BV8" s="1">
-        <v>-690.896000</v>
+        <v>-690.89599999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>3047.390412</v>
+        <v>3047.3904120000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.846497</v>
+        <v>0.84649700000000005</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="CA8" s="1">
-        <v>-906.505000</v>
+        <v>-906.505</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>3059.161469</v>
+        <v>3059.1614690000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.849767</v>
+        <v>0.84976700000000005</v>
       </c>
       <c r="CE8" s="1">
-        <v>1805.280000</v>
+        <v>1805.28</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1419.420000</v>
+        <v>-1419.42</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>2888.790160</v>
+        <v>2888.79016</v>
       </c>
       <c r="B9" s="1">
-        <v>0.802442</v>
+        <v>0.80244199999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>896.443000</v>
+        <v>896.44299999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.435000</v>
+        <v>-199.435</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2899.214609</v>
+        <v>2899.2146090000001</v>
       </c>
       <c r="G9" s="1">
-        <v>0.805337</v>
+        <v>0.80533699999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>914.549000</v>
+        <v>914.54899999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.928000</v>
+        <v>-168.928</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2909.550707</v>
+        <v>2909.5507069999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.808209</v>
+        <v>0.80820899999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>938.352000</v>
+        <v>938.35199999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.791000</v>
+        <v>-119.791</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>2920.024230</v>
+        <v>2920.02423</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.811118</v>
+        <v>0.81111800000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>945.051000</v>
+        <v>945.05100000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.367000</v>
+        <v>-103.367</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2930.565207</v>
+        <v>2930.5652070000001</v>
       </c>
       <c r="V9" s="1">
-        <v>0.814046</v>
+        <v>0.81404600000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>951.648000</v>
+        <v>951.64800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.187300</v>
+        <v>-88.187299999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>2941.039798</v>
+        <v>2941.0397979999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.816955</v>
+        <v>0.81695499999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.748000</v>
+        <v>958.74800000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.264000</v>
+        <v>-76.263999999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>2951.575243</v>
+        <v>2951.5752429999998</v>
       </c>
       <c r="AF9" s="1">
         <v>0.819882</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.414000</v>
+        <v>963.41399999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-73.836600</v>
+        <v>-73.836600000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2962.132121</v>
+        <v>2962.1321210000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.822814</v>
+        <v>0.82281400000000005</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.505000</v>
+        <v>970.505</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.147400</v>
+        <v>-78.147400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>2972.477153</v>
+        <v>2972.4771529999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.825688</v>
+        <v>0.82568799999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.411000</v>
+        <v>978.41099999999994</v>
       </c>
       <c r="AR9" s="1">
-        <v>-89.203300</v>
+        <v>-89.203299999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>2983.570177</v>
+        <v>2983.5701770000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.828769</v>
+        <v>0.82876899999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>987.956000</v>
+        <v>987.95600000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-106.340000</v>
+        <v>-106.34</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>2994.643885</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.831846</v>
+        <v>0.83184599999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>995.977000</v>
+        <v>995.97699999999998</v>
       </c>
       <c r="BB9" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>3005.263206</v>
+        <v>3005.2632060000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.834795</v>
+        <v>0.83479499999999995</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG9" s="1">
-        <v>-191.274000</v>
+        <v>-191.274</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>3016.369125</v>
+        <v>3016.3691250000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.837880</v>
+        <v>0.83787999999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1096.550000</v>
+        <v>1096.55</v>
       </c>
       <c r="BL9" s="1">
-        <v>-306.027000</v>
+        <v>-306.02699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>3026.669576</v>
+        <v>3026.6695759999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.840742</v>
+        <v>0.84074199999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.896000</v>
+        <v>-488.89600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>3037.124714</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.843646</v>
+        <v>0.84364600000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1318.880000</v>
+        <v>1318.88</v>
       </c>
       <c r="BV9" s="1">
-        <v>-691.014000</v>
+        <v>-691.01400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>3047.828380</v>
+        <v>3047.8283799999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.846619</v>
+        <v>0.84661900000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA9" s="1">
-        <v>-906.572000</v>
+        <v>-906.572</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>3059.681276</v>
+        <v>3059.6812759999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.849911</v>
+        <v>0.84991099999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1804.260000</v>
+        <v>1804.26</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1420.440000</v>
+        <v>-1420.44</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>2889.210285</v>
+        <v>2889.2102850000001</v>
       </c>
       <c r="B10" s="1">
-        <v>0.802558</v>
+        <v>0.80255799999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>896.485000</v>
+        <v>896.48500000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.561000</v>
+        <v>-199.56100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2899.477952</v>
+        <v>2899.4779520000002</v>
       </c>
       <c r="G10" s="1">
-        <v>0.805411</v>
+        <v>0.80541099999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>914.714000</v>
+        <v>914.71400000000006</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.988000</v>
+        <v>-168.988</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2909.887987</v>
+        <v>2909.8879870000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.808302</v>
+        <v>0.80830199999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>938.168000</v>
+        <v>938.16800000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.762000</v>
+        <v>-119.762</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2920.376884</v>
+        <v>2920.3768839999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.811216</v>
+        <v>0.81121600000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>945.011000</v>
+        <v>945.01099999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>2930.910459</v>
+        <v>2930.9104590000002</v>
       </c>
       <c r="V10" s="1">
-        <v>0.814142</v>
+        <v>0.81414200000000003</v>
       </c>
       <c r="W10" s="1">
-        <v>951.617000</v>
+        <v>951.61699999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.166900</v>
+        <v>-88.166899999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>2941.391919</v>
+        <v>2941.3919190000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.817053</v>
+        <v>0.81705300000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.854000</v>
+        <v>958.85400000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.267800</v>
+        <v>-76.267799999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>2952.261738</v>
+        <v>2952.2617380000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.820073</v>
+        <v>0.82007300000000005</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.418000</v>
+        <v>963.41800000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-73.817300</v>
+        <v>-73.817300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>2962.484254</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.822912</v>
+        <v>0.82291199999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.506000</v>
+        <v>970.50599999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.141000</v>
+        <v>-78.141000000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>2972.855599</v>
@@ -2657,754 +3073,754 @@
         <v>0.825793</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.416000</v>
+        <v>978.41600000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-89.175800</v>
+        <v>-89.175799999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>2983.936720</v>
+        <v>2983.9367200000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.828871</v>
+        <v>0.82887100000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>987.957000</v>
+        <v>987.95699999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-106.338000</v>
+        <v>-106.33799999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>2995.316466</v>
+        <v>2995.3164660000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.832032</v>
+        <v>0.83203199999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>995.957000</v>
+        <v>995.95699999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>3005.926851</v>
+        <v>3005.9268510000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.834980</v>
+        <v>0.83498000000000006</v>
       </c>
       <c r="BF10" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG10" s="1">
-        <v>-191.274000</v>
+        <v>-191.274</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>3016.475800</v>
+        <v>3016.4758000000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.837910</v>
+        <v>0.83791000000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1096.540000</v>
+        <v>1096.54</v>
       </c>
       <c r="BL10" s="1">
-        <v>-306.045000</v>
+        <v>-306.04500000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>3027.070807</v>
+        <v>3027.0708070000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.840853</v>
+        <v>0.84085299999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1200.480000</v>
+        <v>1200.48</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.884000</v>
+        <v>-488.88400000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>3037.535898</v>
+        <v>3037.5358980000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.843760</v>
+        <v>0.84375999999999995</v>
       </c>
       <c r="BU10" s="1">
-        <v>1318.890000</v>
+        <v>1318.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-690.914000</v>
+        <v>-690.91399999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>3048.285195</v>
+        <v>3048.2851949999999</v>
       </c>
       <c r="BY10" s="1">
         <v>0.846746</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1451.990000</v>
+        <v>1451.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-906.661000</v>
+        <v>-906.66099999999994</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>3060.198603</v>
+        <v>3060.1986029999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.850055</v>
+        <v>0.85005500000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1804.570000</v>
+        <v>1804.57</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1419.620000</v>
+        <v>-1419.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>2889.489550</v>
+        <v>2889.4895499999998</v>
       </c>
       <c r="B11" s="1">
-        <v>0.802636</v>
+        <v>0.80263600000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>896.449000</v>
+        <v>896.44899999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.617000</v>
+        <v>-199.61699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2899.822176</v>
+        <v>2899.8221760000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.805506</v>
+        <v>0.80550600000000006</v>
       </c>
       <c r="H11" s="1">
-        <v>914.525000</v>
+        <v>914.52499999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.941000</v>
+        <v>-168.941</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2910.234691</v>
+        <v>2910.2346910000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0.808399</v>
+        <v>0.80839899999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>938.295000</v>
+        <v>938.29499999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.610000</v>
+        <v>-119.61</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>2920.726068</v>
+        <v>2920.7260679999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.811313</v>
+        <v>0.81131299999999995</v>
       </c>
       <c r="R11" s="1">
-        <v>945.022000</v>
+        <v>945.02200000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.315000</v>
+        <v>-103.315</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>2931.597383</v>
+        <v>2931.5973829999998</v>
       </c>
       <c r="V11" s="1">
-        <v>0.814333</v>
+        <v>0.81433299999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>951.701000</v>
+        <v>951.70100000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.121100</v>
+        <v>-88.121099999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>2942.085784</v>
+        <v>2942.0857839999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.817246</v>
+        <v>0.81724600000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.766000</v>
+        <v>958.76599999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.304300</v>
+        <v>-76.304299999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>2952.605933</v>
+        <v>2952.6059329999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.820168</v>
+        <v>0.82016800000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.372000</v>
+        <v>963.37199999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-73.804100</v>
+        <v>-73.804100000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2962.831950</v>
+        <v>2962.8319499999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.823009</v>
+        <v>0.82300899999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.518000</v>
+        <v>970.51800000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.128400</v>
+        <v>-78.128399999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>2973.245455</v>
+        <v>2973.2454550000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.825902</v>
+        <v>0.82590200000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.363000</v>
+        <v>978.36300000000006</v>
       </c>
       <c r="AR11" s="1">
-        <v>-89.177400</v>
+        <v>-89.177400000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>2984.598879</v>
+        <v>2984.5988790000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.829055</v>
+        <v>0.82905499999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>987.969000</v>
+        <v>987.96900000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-106.335000</v>
+        <v>-106.33499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>2995.748977</v>
+        <v>2995.7489770000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>0.832152</v>
       </c>
       <c r="BA11" s="1">
-        <v>995.978000</v>
+        <v>995.97799999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-121.318000</v>
+        <v>-121.318</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>3006.348947</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.835097</v>
+        <v>0.83509699999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG11" s="1">
-        <v>-191.286000</v>
+        <v>-191.286</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>3016.848757</v>
+        <v>3016.8487570000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.838014</v>
+        <v>0.83801400000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1096.550000</v>
+        <v>1096.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-306.029000</v>
+        <v>-306.029</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>3027.471079</v>
+        <v>3027.4710789999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.840964</v>
+        <v>0.84096400000000004</v>
       </c>
       <c r="BP11" s="1">
-        <v>1200.410000</v>
+        <v>1200.4100000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.901000</v>
+        <v>-488.90100000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>3037.964577</v>
+        <v>3037.9645770000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.843879</v>
+        <v>0.84387900000000005</v>
       </c>
       <c r="BU11" s="1">
-        <v>1318.820000</v>
+        <v>1318.82</v>
       </c>
       <c r="BV11" s="1">
-        <v>-691.019000</v>
+        <v>-691.01900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>3048.734075</v>
+        <v>3048.7340749999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.846871</v>
+        <v>0.84687100000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1452.010000</v>
+        <v>1452.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-906.555000</v>
+        <v>-906.55499999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>3060.752635</v>
+        <v>3060.7526349999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.850209</v>
+        <v>0.85020899999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1805.450000</v>
+        <v>1805.45</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1419.250000</v>
+        <v>-1419.25</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>2889.830765</v>
+        <v>2889.8307650000002</v>
       </c>
       <c r="B12" s="1">
-        <v>0.802731</v>
+        <v>0.80273099999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>896.472000</v>
+        <v>896.47199999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.455000</v>
+        <v>-199.45500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2900.165903</v>
+        <v>2900.1659030000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.805602</v>
+        <v>0.80560200000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>914.616000</v>
+        <v>914.61599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.807000</v>
+        <v>-168.80699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>2910.924129</v>
       </c>
       <c r="L12" s="1">
-        <v>0.808590</v>
+        <v>0.80859000000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>938.165000</v>
+        <v>938.16499999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.791000</v>
+        <v>-119.791</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2921.424932</v>
+        <v>2921.4249319999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.811507</v>
+        <v>0.81150699999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>945.040000</v>
+        <v>945.04</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2931.940522</v>
+        <v>2931.9405219999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.814428</v>
+        <v>0.81442800000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>951.611000</v>
+        <v>951.61099999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.201500</v>
+        <v>-88.201499999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>2942.437465</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.817344</v>
+        <v>0.81734399999999996</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.825000</v>
+        <v>958.82500000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.296700</v>
+        <v>-76.296700000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2952.945689</v>
+        <v>2952.9456890000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.820263</v>
+        <v>0.82026299999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.423000</v>
+        <v>963.423</v>
       </c>
       <c r="AH12" s="1">
-        <v>-73.837400</v>
+        <v>-73.837400000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2963.476749</v>
+        <v>2963.4767489999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.823188</v>
+        <v>0.82318800000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.516000</v>
+        <v>970.51599999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.141600</v>
+        <v>-78.141599999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2973.912575</v>
+        <v>2973.9125749999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.826087</v>
+        <v>0.82608700000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.363000</v>
+        <v>978.36300000000006</v>
       </c>
       <c r="AR12" s="1">
-        <v>-89.182400</v>
+        <v>-89.182400000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>2985.061151</v>
+        <v>2985.0611509999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.829184</v>
+        <v>0.82918400000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>987.979000</v>
+        <v>987.97900000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-106.345000</v>
+        <v>-106.345</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>2996.107094</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.832252</v>
+        <v>0.83225199999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>995.964000</v>
+        <v>995.96400000000006</v>
       </c>
       <c r="BB12" s="1">
-        <v>-121.331000</v>
+        <v>-121.331</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>3006.737346</v>
+        <v>3006.7373459999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.835205</v>
+        <v>0.83520499999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.010000</v>
+        <v>1033.01</v>
       </c>
       <c r="BG12" s="1">
-        <v>-191.288000</v>
+        <v>-191.28800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>3017.226212</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.838118</v>
+        <v>0.83811800000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-306.022000</v>
+        <v>-306.02199999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>3027.888711</v>
+        <v>3027.8887110000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.841080</v>
+        <v>0.84108000000000005</v>
       </c>
       <c r="BP12" s="1">
-        <v>1200.490000</v>
+        <v>1200.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.881000</v>
+        <v>-488.88099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>3038.376120</v>
+        <v>3038.3761199999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.843993</v>
+        <v>0.84399299999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1318.850000</v>
+        <v>1318.85</v>
       </c>
       <c r="BV12" s="1">
-        <v>-691.019000</v>
+        <v>-691.01900000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>3049.188442</v>
+        <v>3049.1884420000001</v>
       </c>
       <c r="BY12" s="1">
         <v>0.846997</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA12" s="1">
-        <v>-906.511000</v>
+        <v>-906.51099999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>3061.283387</v>
+        <v>3061.2833869999999</v>
       </c>
       <c r="CD12" s="1">
         <v>0.850356</v>
       </c>
       <c r="CE12" s="1">
-        <v>1803.970000</v>
+        <v>1803.97</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1419.610000</v>
+        <v>-1419.61</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>2890.175982</v>
+        <v>2890.1759820000002</v>
       </c>
       <c r="B13" s="1">
-        <v>0.802827</v>
+        <v>0.80282699999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>896.452000</v>
+        <v>896.452</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.499000</v>
+        <v>-199.499</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>2900.855342</v>
+        <v>2900.8553419999998</v>
       </c>
       <c r="G13" s="1">
-        <v>0.805793</v>
+        <v>0.80579299999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>914.746000</v>
+        <v>914.74599999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.683000</v>
+        <v>-168.68299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>2911.269840</v>
+        <v>2911.2698399999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.808686</v>
+        <v>0.80868600000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>938.410000</v>
+        <v>938.41</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.767000</v>
+        <v>-119.767</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>2921.767667</v>
+        <v>2921.7676670000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.811602</v>
+        <v>0.81160200000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>945.038000</v>
+        <v>945.03800000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.331000</v>
+        <v>-103.331</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>2932.284837</v>
+        <v>2932.2848370000002</v>
       </c>
       <c r="V13" s="1">
-        <v>0.814524</v>
+        <v>0.81452400000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>951.634000</v>
+        <v>951.63400000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.153000</v>
+        <v>-88.153000000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2943.095142</v>
+        <v>2943.0951420000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.817526</v>
+        <v>0.81752599999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.750000</v>
+        <v>958.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.211200</v>
+        <v>-76.211200000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2953.606856</v>
+        <v>2953.6068559999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.820446</v>
+        <v>0.82044600000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.387000</v>
+        <v>963.38699999999994</v>
       </c>
       <c r="AH13" s="1">
-        <v>-73.827400</v>
+        <v>-73.827399999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>2963.877019</v>
@@ -3413,1328 +3829,1328 @@
         <v>0.823299</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.508000</v>
+        <v>970.50800000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.123800</v>
+        <v>-78.123800000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>2974.334669</v>
+        <v>2974.3346689999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.826204</v>
+        <v>0.82620400000000005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.320000</v>
+        <v>978.32</v>
       </c>
       <c r="AR13" s="1">
-        <v>-89.208900</v>
+        <v>-89.2089</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>2985.426208</v>
+        <v>2985.4262079999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.829285</v>
+        <v>0.82928500000000005</v>
       </c>
       <c r="AV13" s="1">
-        <v>987.948000</v>
+        <v>987.94799999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-106.347000</v>
+        <v>-106.34699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>2996.465201</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.832351</v>
+        <v>0.83235099999999995</v>
       </c>
       <c r="BA13" s="1">
-        <v>995.994000</v>
+        <v>995.99400000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>3007.096914</v>
+        <v>3007.0969140000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.835305</v>
+        <v>0.83530499999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-191.293000</v>
+        <v>-191.29300000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>3017.641860</v>
+        <v>3017.6418600000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.838234</v>
+        <v>0.83823400000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1096.540000</v>
+        <v>1096.54</v>
       </c>
       <c r="BL13" s="1">
-        <v>-306.013000</v>
+        <v>-306.01299999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>3028.286005</v>
+        <v>3028.2860049999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.841191</v>
+        <v>0.84119100000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.881000</v>
+        <v>-488.88099999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>3038.793753</v>
+        <v>3038.7937529999999</v>
       </c>
       <c r="BT13" s="1">
         <v>0.844109</v>
       </c>
       <c r="BU13" s="1">
-        <v>1318.810000</v>
+        <v>1318.81</v>
       </c>
       <c r="BV13" s="1">
-        <v>-691.019000</v>
+        <v>-691.01900000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>3049.639770</v>
+        <v>3049.6397700000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.847122</v>
+        <v>0.84712200000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1452.070000</v>
+        <v>1452.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-906.667000</v>
+        <v>-906.66700000000003</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>3061.802201</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.850501</v>
+        <v>0.85050099999999995</v>
       </c>
       <c r="CE13" s="1">
-        <v>1804.790000</v>
+        <v>1804.79</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1421.010000</v>
+        <v>-1421.01</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>2890.855533</v>
+        <v>2890.8555329999999</v>
       </c>
       <c r="B14" s="1">
-        <v>0.803015</v>
+        <v>0.80301500000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>896.380000</v>
+        <v>896.38</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.635000</v>
+        <v>-199.63499999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2901.201054</v>
+        <v>2901.2010540000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.805889</v>
+        <v>0.80588899999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>914.364000</v>
+        <v>914.36400000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.181000</v>
+        <v>-169.18100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2911.614093</v>
+        <v>2911.6140930000001</v>
       </c>
       <c r="L14" s="1">
         <v>0.808782</v>
       </c>
       <c r="M14" s="1">
-        <v>938.190000</v>
+        <v>938.19</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.693000</v>
+        <v>-119.693</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>2922.116850</v>
+        <v>2922.1168499999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.811699</v>
+        <v>0.81169899999999995</v>
       </c>
       <c r="R14" s="1">
-        <v>945.045000</v>
+        <v>945.04499999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.346000</v>
+        <v>-103.346</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>2932.945044</v>
+        <v>2932.9450440000001</v>
       </c>
       <c r="V14" s="1">
-        <v>0.814707</v>
+        <v>0.81470699999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>951.628000</v>
+        <v>951.62800000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.128200</v>
+        <v>-88.128200000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>2943.480534</v>
+        <v>2943.4805339999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.817633</v>
+        <v>0.81763300000000005</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.716000</v>
+        <v>958.71600000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.266200</v>
+        <v>-76.266199999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>2953.980840</v>
+        <v>2953.9808400000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.820550</v>
+        <v>0.82055</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.421000</v>
+        <v>963.42100000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-73.814300</v>
+        <v>-73.814300000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>2964.225212</v>
+        <v>2964.2252119999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.823396</v>
+        <v>0.82339600000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.495000</v>
+        <v>970.495</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.122400</v>
+        <v>-78.122399999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>2974.709148</v>
+        <v>2974.7091479999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.826308</v>
+        <v>0.82630800000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.314000</v>
+        <v>978.31399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-89.242300</v>
+        <v>-89.2423</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>2985.790766</v>
+        <v>2985.7907660000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.829386</v>
+        <v>0.82938599999999996</v>
       </c>
       <c r="AV14" s="1">
-        <v>987.982000</v>
+        <v>987.98199999999997</v>
       </c>
       <c r="AW14" s="1">
-        <v>-106.341000</v>
+        <v>-106.34099999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>2996.876384</v>
+        <v>2996.8763840000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.832466</v>
+        <v>0.83246600000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>995.977000</v>
+        <v>995.97699999999998</v>
       </c>
       <c r="BB14" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>3007.506610</v>
+        <v>3007.5066099999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.835419</v>
+        <v>0.83541900000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG14" s="1">
-        <v>-191.266000</v>
+        <v>-191.26599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>3017.976165</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.838327</v>
+        <v>0.83832700000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL14" s="1">
-        <v>-306.015000</v>
+        <v>-306.01499999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>3028.706645</v>
+        <v>3028.7066450000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.841307</v>
+        <v>0.84130700000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1200.440000</v>
+        <v>1200.44</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.894000</v>
+        <v>-488.89400000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>3039.208407</v>
+        <v>3039.2084070000001</v>
       </c>
       <c r="BT14" s="1">
         <v>0.844225</v>
       </c>
       <c r="BU14" s="1">
-        <v>1318.830000</v>
+        <v>1318.83</v>
       </c>
       <c r="BV14" s="1">
-        <v>-691.123000</v>
+        <v>-691.12300000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>3050.093144</v>
+        <v>3050.0931439999999</v>
       </c>
       <c r="BY14" s="1">
         <v>0.847248</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-906.581000</v>
+        <v>-906.58100000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>3062.317017</v>
+        <v>3062.3170169999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.850644</v>
+        <v>0.85064399999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>1805.880000</v>
+        <v>1805.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1420.630000</v>
+        <v>-1420.63</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>2891.196293</v>
       </c>
       <c r="B15" s="1">
-        <v>0.803110</v>
+        <v>0.80310999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>896.206000</v>
+        <v>896.20600000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-199.488000</v>
+        <v>-199.488</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2901.547261</v>
+        <v>2901.5472610000002</v>
       </c>
       <c r="G15" s="1">
-        <v>0.805985</v>
+        <v>0.80598499999999995</v>
       </c>
       <c r="H15" s="1">
-        <v>914.380000</v>
+        <v>914.38</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.916000</v>
+        <v>-168.916</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>2912.268325</v>
       </c>
       <c r="L15" s="1">
-        <v>0.808963</v>
+        <v>0.80896299999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>938.002000</v>
+        <v>938.00199999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.698000</v>
+        <v>-119.69799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>2922.778514</v>
+        <v>2922.7785140000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.811883</v>
+        <v>0.81188300000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>945.025000</v>
+        <v>945.02499999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2933.313575</v>
+        <v>2933.3135750000001</v>
       </c>
       <c r="V15" s="1">
-        <v>0.814809</v>
+        <v>0.81480900000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>951.635000</v>
+        <v>951.63499999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.156300</v>
+        <v>-88.156300000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>2943.829718</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.817730</v>
+        <v>0.81772999999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.784000</v>
+        <v>958.78399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.184700</v>
+        <v>-76.184700000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>2954.325063</v>
+        <v>2954.3250630000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.820646</v>
+        <v>0.82064599999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.416000</v>
+        <v>963.41600000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-73.803800</v>
+        <v>-73.803799999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2964.574395</v>
+        <v>2964.5743950000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.823493</v>
+        <v>0.82349300000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.512000</v>
+        <v>970.51199999999994</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.107400</v>
+        <v>-78.107399999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>2975.070236</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.826408</v>
+        <v>0.82640800000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.362000</v>
+        <v>978.36199999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-89.346400</v>
+        <v>-89.346400000000003</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>2986.204429</v>
+        <v>2986.2044289999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.829501</v>
+        <v>0.82950100000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>987.943000</v>
+        <v>987.94299999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-106.340000</v>
+        <v>-106.34</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>2997.185854</v>
+        <v>2997.1858539999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.832552</v>
+        <v>0.83255199999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>995.991000</v>
+        <v>995.99099999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-121.351000</v>
+        <v>-121.351</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>3007.821073</v>
+        <v>3007.8210730000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.835506</v>
+        <v>0.83550599999999997</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG15" s="1">
-        <v>-191.261000</v>
+        <v>-191.261</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>3018.375939</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.838438</v>
+        <v>0.83843800000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-306.045000</v>
+        <v>-306.04500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>3029.102453</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.841417</v>
+        <v>0.84141699999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.908000</v>
+        <v>-488.90800000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>3039.612151</v>
+        <v>3039.6121509999998</v>
       </c>
       <c r="BT15" s="1">
         <v>0.844337</v>
       </c>
       <c r="BU15" s="1">
-        <v>1318.740000</v>
+        <v>1318.74</v>
       </c>
       <c r="BV15" s="1">
-        <v>-691.009000</v>
+        <v>-691.00900000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>3050.539551</v>
+        <v>3050.5395509999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.847372</v>
+        <v>0.84737200000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="CA15" s="1">
-        <v>-906.480000</v>
+        <v>-906.48</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>3062.835844</v>
+        <v>3062.8358440000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.850788</v>
+        <v>0.85078799999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1805.700000</v>
+        <v>1805.7</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1420.540000</v>
+        <v>-1420.54</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>2891.538987</v>
+        <v>2891.5389869999999</v>
       </c>
       <c r="B16" s="1">
-        <v>0.803205</v>
+        <v>0.80320499999999995</v>
       </c>
       <c r="C16" s="1">
-        <v>896.315000</v>
+        <v>896.31500000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-199.558000</v>
+        <v>-199.55799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2902.195069</v>
+        <v>2902.1950689999999</v>
       </c>
       <c r="G16" s="1">
-        <v>0.806165</v>
+        <v>0.80616500000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>914.677000</v>
+        <v>914.67700000000002</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.673000</v>
+        <v>-168.673</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>2912.652218</v>
+        <v>2912.6522180000002</v>
       </c>
       <c r="L16" s="1">
-        <v>0.809070</v>
+        <v>0.80906999999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>938.166000</v>
+        <v>938.16600000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.655000</v>
+        <v>-119.655</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>2923.163905</v>
+        <v>2923.1639049999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.811990</v>
+        <v>0.81198999999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>945.023000</v>
+        <v>945.02300000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.342000</v>
+        <v>-103.342</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2933.657141</v>
+        <v>2933.6571410000001</v>
       </c>
       <c r="V16" s="1">
-        <v>0.814905</v>
+        <v>0.81490499999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>951.649000</v>
+        <v>951.649</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.130200</v>
+        <v>-88.130200000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>2944.177909</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.817827</v>
+        <v>0.81782699999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.758000</v>
+        <v>958.75800000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.296400</v>
+        <v>-76.296400000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>2954.672759</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.820742</v>
+        <v>0.82074199999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.396000</v>
+        <v>963.39599999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-73.832000</v>
+        <v>-73.831999999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2964.995499</v>
+        <v>2964.9954990000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.823610</v>
+        <v>0.82360999999999995</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.499000</v>
+        <v>970.49900000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.106800</v>
+        <v>-78.106800000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>2975.790429</v>
+        <v>2975.7904290000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.826608</v>
+        <v>0.82660800000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.362000</v>
+        <v>978.36199999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-89.363600</v>
+        <v>-89.363600000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>2986.521869</v>
+        <v>2986.5218690000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.829589</v>
+        <v>0.82958900000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>987.954000</v>
+        <v>987.95399999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-106.332000</v>
+        <v>-106.33199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>2997.543502</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.832651</v>
+        <v>0.83265100000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>995.973000</v>
+        <v>995.97299999999996</v>
       </c>
       <c r="BB16" s="1">
-        <v>-121.322000</v>
+        <v>-121.322</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>3008.184673</v>
+        <v>3008.1846730000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.835607</v>
+        <v>0.83560699999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG16" s="1">
-        <v>-191.298000</v>
+        <v>-191.298</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>3018.748930</v>
+        <v>3018.7489300000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.838541</v>
+        <v>0.83854099999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-306.034000</v>
+        <v>-306.03399999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>3029.524020</v>
+        <v>3029.5240199999998</v>
       </c>
       <c r="BO16" s="1">
         <v>0.841534</v>
       </c>
       <c r="BP16" s="1">
-        <v>1200.450000</v>
+        <v>1200.45</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.865000</v>
+        <v>-488.86500000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>3040.037222</v>
+        <v>3040.0372219999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.844455</v>
+        <v>0.84445499999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1318.740000</v>
+        <v>1318.74</v>
       </c>
       <c r="BV16" s="1">
-        <v>-691.118000</v>
+        <v>-691.11800000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>3050.998808</v>
+        <v>3050.9988079999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.847500</v>
+        <v>0.84750000000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1451.990000</v>
+        <v>1451.99</v>
       </c>
       <c r="CA16" s="1">
-        <v>-906.616000</v>
+        <v>-906.61599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>3063.387879</v>
+        <v>3063.3878789999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.850941</v>
+        <v>0.85094099999999995</v>
       </c>
       <c r="CE16" s="1">
-        <v>1805.360000</v>
+        <v>1805.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1420.890000</v>
+        <v>-1420.89</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>2892.257226</v>
+        <v>2892.2572260000002</v>
       </c>
       <c r="B17" s="1">
-        <v>0.803405</v>
+        <v>0.80340500000000004</v>
       </c>
       <c r="C17" s="1">
-        <v>896.420000</v>
+        <v>896.42</v>
       </c>
       <c r="D17" s="1">
-        <v>-199.534000</v>
+        <v>-199.53399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2902.581420</v>
+        <v>2902.58142</v>
       </c>
       <c r="G17" s="1">
-        <v>0.806273</v>
+        <v>0.80627300000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>914.433000</v>
+        <v>914.43299999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.037000</v>
+        <v>-169.03700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2912.995918</v>
+        <v>2912.9959180000001</v>
       </c>
       <c r="L17" s="1">
-        <v>0.809166</v>
+        <v>0.80916600000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>938.088000</v>
+        <v>938.08799999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.778000</v>
+        <v>-119.77800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>2923.515073</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.812088</v>
+        <v>0.81208800000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>945.020000</v>
+        <v>945.02</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>2933.999506</v>
+        <v>2933.9995060000001</v>
       </c>
       <c r="V17" s="1">
-        <v>0.815000</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="W17" s="1">
-        <v>951.617000</v>
+        <v>951.61699999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.145700</v>
+        <v>-88.145700000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>2944.594580</v>
+        <v>2944.59458</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.817943</v>
+        <v>0.81794299999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.713000</v>
+        <v>958.71299999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.269800</v>
+        <v>-76.269800000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>2955.084471</v>
+        <v>2955.0844710000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.820857</v>
+        <v>0.82085699999999995</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.407000</v>
+        <v>963.40700000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-73.841000</v>
+        <v>-73.840999999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2965.272265</v>
+        <v>2965.2722650000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.823687</v>
+        <v>0.82368699999999995</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.510000</v>
+        <v>970.51</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.127500</v>
+        <v>-78.127499999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>2976.177804</v>
+        <v>2976.1778039999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.826716</v>
+        <v>0.82671600000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.378000</v>
+        <v>978.37800000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-89.349000</v>
+        <v>-89.349000000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>2986.886429</v>
+        <v>2986.8864290000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.829691</v>
+        <v>0.82969099999999996</v>
       </c>
       <c r="AV17" s="1">
-        <v>987.960000</v>
+        <v>987.96</v>
       </c>
       <c r="AW17" s="1">
-        <v>-106.340000</v>
+        <v>-106.34</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>2997.903565</v>
+        <v>2997.9035650000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.832751</v>
+        <v>0.83275100000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>995.965000</v>
+        <v>995.96500000000003</v>
       </c>
       <c r="BB17" s="1">
-        <v>-121.348000</v>
+        <v>-121.348</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>3008.591397</v>
+        <v>3008.5913970000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.835720</v>
+        <v>0.83572000000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1032.990000</v>
+        <v>1032.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-191.279000</v>
+        <v>-191.279</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>3019.500370</v>
+        <v>3019.5003700000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.838750</v>
+        <v>0.83875</v>
       </c>
       <c r="BK17" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL17" s="1">
-        <v>-305.999000</v>
+        <v>-305.99900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>3029.920821</v>
+        <v>3029.9208210000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.841645</v>
+        <v>0.84164499999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1200.440000</v>
+        <v>1200.44</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.912000</v>
+        <v>-488.91199999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>3040.472214</v>
+        <v>3040.4722139999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.844576</v>
+        <v>0.84457599999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="BV17" s="1">
-        <v>-691.088000</v>
+        <v>-691.08799999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>3051.446705</v>
+        <v>3051.4467049999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.847624</v>
+        <v>0.84762400000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA17" s="1">
-        <v>-906.603000</v>
+        <v>-906.60299999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>3064.216229</v>
+        <v>3064.2162290000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.851171</v>
+        <v>0.85117100000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1806.080000</v>
+        <v>1806.08</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1419.950000</v>
+        <v>-1419.95</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>2892.568681</v>
+        <v>2892.5686810000002</v>
       </c>
       <c r="B18" s="1">
-        <v>0.803491</v>
+        <v>0.80349099999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>896.387000</v>
+        <v>896.38699999999994</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.533000</v>
+        <v>-199.53299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>2902.925643</v>
       </c>
       <c r="G18" s="1">
-        <v>0.806368</v>
+        <v>0.80636799999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>914.620000</v>
+        <v>914.62</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.837000</v>
+        <v>-168.83699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>2913.343150</v>
+        <v>2913.3431500000002</v>
       </c>
       <c r="L18" s="1">
-        <v>0.809262</v>
+        <v>0.80926200000000004</v>
       </c>
       <c r="M18" s="1">
-        <v>938.140000</v>
+        <v>938.14</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.645000</v>
+        <v>-119.645</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2923.863760</v>
+        <v>2923.8637600000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.812184</v>
+        <v>0.81218400000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>945.056000</v>
+        <v>945.05600000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.357000</v>
+        <v>-103.357</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>2934.415154</v>
+        <v>2934.4151539999998</v>
       </c>
       <c r="V18" s="1">
-        <v>0.815115</v>
+        <v>0.81511500000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>951.676000</v>
+        <v>951.67600000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.101900</v>
+        <v>-88.101900000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>2944.893140</v>
+        <v>2944.8931400000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.818026</v>
+        <v>0.81802600000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.700000</v>
+        <v>958.7</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.252800</v>
+        <v>-76.252799999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>2955.374630</v>
+        <v>2955.3746299999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.820937</v>
+        <v>0.82093700000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.388000</v>
+        <v>963.38800000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-73.830900</v>
+        <v>-73.8309</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>2965.621450</v>
+        <v>2965.6214500000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.823784</v>
+        <v>0.82378399999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.490000</v>
+        <v>970.49</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.122800</v>
+        <v>-78.122799999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>2976.539882</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.826817</v>
+        <v>0.82681700000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.371000</v>
+        <v>978.37099999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-89.355400</v>
+        <v>-89.355400000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>2987.251020</v>
+        <v>2987.2510200000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.829792</v>
+        <v>0.82979199999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>987.953000</v>
+        <v>987.95299999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-106.346000</v>
+        <v>-106.346</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>2998.622269</v>
@@ -4743,679 +5159,679 @@
         <v>0.832951</v>
       </c>
       <c r="BA18" s="1">
-        <v>995.955000</v>
+        <v>995.95500000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-121.338000</v>
+        <v>-121.33799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>3009.315023</v>
+        <v>3009.3150230000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.835921</v>
+        <v>0.83592100000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG18" s="1">
-        <v>-191.278000</v>
+        <v>-191.27799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>3019.874849</v>
+        <v>3019.8748489999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.838854</v>
+        <v>0.83885399999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1096.560000</v>
+        <v>1096.56</v>
       </c>
       <c r="BL18" s="1">
-        <v>-306.046000</v>
+        <v>-306.04599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>3030.344403</v>
+        <v>3030.3444030000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.841762</v>
+        <v>0.84176200000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.884000</v>
+        <v>-488.88400000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>3040.898812</v>
+        <v>3040.8988119999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.844694</v>
+        <v>0.84469399999999994</v>
       </c>
       <c r="BU18" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="BV18" s="1">
-        <v>-691.131000</v>
+        <v>-691.13099999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>3052.183750</v>
+        <v>3052.1837500000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.847829</v>
+        <v>0.84782900000000005</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA18" s="1">
-        <v>-906.567000</v>
+        <v>-906.56700000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>3064.467207</v>
+        <v>3064.4672070000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.851241</v>
+        <v>0.85124100000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1804.810000</v>
+        <v>1804.81</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1419.430000</v>
+        <v>-1419.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>2892.913433</v>
+        <v>2892.9134330000002</v>
       </c>
       <c r="B19" s="1">
-        <v>0.803587</v>
+        <v>0.80358700000000005</v>
       </c>
       <c r="C19" s="1">
-        <v>896.532000</v>
+        <v>896.53200000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-199.561000</v>
+        <v>-199.56100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2903.268875</v>
+        <v>2903.2688750000002</v>
       </c>
       <c r="G19" s="1">
-        <v>0.806464</v>
+        <v>0.80646399999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>914.368000</v>
+        <v>914.36800000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.840000</v>
+        <v>-168.84</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>2913.758284</v>
       </c>
       <c r="L19" s="1">
-        <v>0.809377</v>
+        <v>0.80937700000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>938.361000</v>
+        <v>938.36099999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.803000</v>
+        <v>-119.803</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>2924.286351</v>
+        <v>2924.2863510000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.812302</v>
+        <v>0.81230199999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>945.044000</v>
+        <v>945.04399999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.353000</v>
+        <v>-103.35299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>2934.709320</v>
+        <v>2934.7093199999999</v>
       </c>
       <c r="V19" s="1">
-        <v>0.815197</v>
+        <v>0.81519699999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>951.680000</v>
+        <v>951.68</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.110300</v>
+        <v>-88.110299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>2945.241370</v>
+        <v>2945.2413700000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.818123</v>
+        <v>0.81812300000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.741000</v>
+        <v>958.74099999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.195400</v>
+        <v>-76.195400000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>2955.719317</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.821033</v>
+        <v>0.82103300000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.414000</v>
+        <v>963.41399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-73.826000</v>
+        <v>-73.825999999999993</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2965.970136</v>
+        <v>2965.9701359999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.823881</v>
+        <v>0.82388099999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.513000</v>
+        <v>970.51300000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.120700</v>
+        <v>-78.120699999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>2977.262587</v>
+        <v>2977.2625870000002</v>
       </c>
       <c r="AP19" s="1">
         <v>0.827017</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.362000</v>
+        <v>978.36199999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-89.363400</v>
+        <v>-89.363399999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>2987.978619</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.829994</v>
+        <v>0.82999400000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>987.969000</v>
+        <v>987.96900000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-106.342000</v>
+        <v>-106.342</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>2998.976414</v>
+        <v>2998.9764140000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.833049</v>
+        <v>0.83304900000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>995.978000</v>
+        <v>995.97799999999995</v>
       </c>
       <c r="BB19" s="1">
-        <v>-121.319000</v>
+        <v>-121.319</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>3009.679086</v>
+        <v>3009.6790860000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.836022</v>
+        <v>0.83602200000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG19" s="1">
-        <v>-191.290000</v>
+        <v>-191.29</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>3020.254322</v>
+        <v>3020.2543219999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.838960</v>
+        <v>0.83896000000000004</v>
       </c>
       <c r="BK19" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL19" s="1">
-        <v>-306.023000</v>
+        <v>-306.02300000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>3031.043767</v>
+        <v>3031.0437670000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.841957</v>
+        <v>0.84195699999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1200.430000</v>
+        <v>1200.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.915000</v>
+        <v>-488.91500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>3041.616980</v>
+        <v>3041.6169799999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.844894</v>
+        <v>0.84489400000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="BV19" s="1">
-        <v>-691.073000</v>
+        <v>-691.07299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>3052.318699</v>
+        <v>3052.3186989999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.847866</v>
+        <v>0.84786600000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1451.990000</v>
+        <v>1451.99</v>
       </c>
       <c r="CA19" s="1">
-        <v>-906.549000</v>
+        <v>-906.54899999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>3065.003349</v>
+        <v>3065.0033490000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.851390</v>
+        <v>0.85138999999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1805.110000</v>
+        <v>1805.11</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1421.100000</v>
+        <v>-1421.1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>2893.325576</v>
+        <v>2893.3255760000002</v>
       </c>
       <c r="B20" s="1">
-        <v>0.803702</v>
+        <v>0.80370200000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>896.326000</v>
+        <v>896.32600000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.455000</v>
+        <v>-199.45500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>2903.687034</v>
       </c>
       <c r="G20" s="1">
-        <v>0.806580</v>
+        <v>0.80657999999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>914.552000</v>
+        <v>914.55200000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.727000</v>
+        <v>-168.727</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>2914.037021</v>
+        <v>2914.0370210000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.809455</v>
+        <v>0.80945500000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>938.141000</v>
+        <v>938.14099999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.684000</v>
+        <v>-119.684</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>2924.574541</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.812382</v>
+        <v>0.81238200000000005</v>
       </c>
       <c r="R20" s="1">
-        <v>945.032000</v>
+        <v>945.03200000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.366000</v>
+        <v>-103.366</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>2935.054498</v>
       </c>
       <c r="V20" s="1">
-        <v>0.815293</v>
+        <v>0.81529300000000005</v>
       </c>
       <c r="W20" s="1">
-        <v>951.668000</v>
+        <v>951.66800000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.131300</v>
+        <v>-88.131299999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>2945.590547</v>
+        <v>2945.5905469999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.818220</v>
+        <v>0.81821999999999995</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.710000</v>
+        <v>958.71</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.315100</v>
+        <v>-76.315100000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>2956.062053</v>
+        <v>2956.0620530000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.821128</v>
+        <v>0.82112799999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.414000</v>
+        <v>963.41399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-73.816600</v>
+        <v>-73.816599999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>2966.664040</v>
+        <v>2966.6640400000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.824073</v>
+        <v>0.82407300000000006</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.491000</v>
+        <v>970.49099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.114800</v>
+        <v>-78.114800000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>2977.641001</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.827123</v>
+        <v>0.82712300000000005</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.369000</v>
+        <v>978.36900000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-89.355300</v>
+        <v>-89.3553</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>2988.372444</v>
+        <v>2988.3724440000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.830103</v>
+        <v>0.83010300000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>987.963000</v>
+        <v>987.96299999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-106.325000</v>
+        <v>-106.325</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>2999.337533</v>
+        <v>2999.3375329999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.833149</v>
+        <v>0.83314900000000003</v>
       </c>
       <c r="BA20" s="1">
-        <v>995.962000</v>
+        <v>995.96199999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>3010.343759</v>
+        <v>3010.3437589999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.836207</v>
+        <v>0.83620700000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG20" s="1">
-        <v>-191.274000</v>
+        <v>-191.274</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>3020.956625</v>
+        <v>3020.9566249999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.839155</v>
+        <v>0.83915499999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL20" s="1">
-        <v>-306.048000</v>
+        <v>-306.048</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>3031.156850</v>
+        <v>3031.1568499999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.841988</v>
+        <v>0.84198799999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1200.510000</v>
+        <v>1200.51</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.908000</v>
+        <v>-488.90800000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>3041.743460</v>
+        <v>3041.7434600000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.844929</v>
+        <v>0.84492900000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1318.640000</v>
+        <v>1318.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-691.118000</v>
+        <v>-691.11800000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>3052.746718</v>
+        <v>3052.7467179999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.847985</v>
+        <v>0.84798499999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1452.030000</v>
+        <v>1452.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-906.610000</v>
+        <v>-906.61</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>3065.543028</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.851540</v>
+        <v>0.85153999999999996</v>
       </c>
       <c r="CE20" s="1">
-        <v>1805.920000</v>
+        <v>1805.92</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1419.600000</v>
+        <v>-1419.6</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>2893.614248</v>
+        <v>2893.6142479999999</v>
       </c>
       <c r="B21" s="1">
         <v>0.803782</v>
       </c>
       <c r="C21" s="1">
-        <v>896.422000</v>
+        <v>896.42200000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.550000</v>
+        <v>-199.55</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>2903.966747</v>
+        <v>2903.9667469999999</v>
       </c>
       <c r="G21" s="1">
-        <v>0.806657</v>
+        <v>0.80665699999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>914.583000</v>
+        <v>914.58299999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.698000</v>
+        <v>-168.69800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>2914.384748</v>
+        <v>2914.3847479999999</v>
       </c>
       <c r="L21" s="1">
-        <v>0.809551</v>
+        <v>0.80955100000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>938.234000</v>
+        <v>938.23400000000004</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.600000</v>
+        <v>-119.6</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>2924.921268</v>
+        <v>2924.9212680000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.812478</v>
+        <v>0.81247800000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>945.019000</v>
+        <v>945.01900000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>2935.398224</v>
@@ -5424,345 +5840,345 @@
         <v>0.815388</v>
       </c>
       <c r="W21" s="1">
-        <v>951.575000</v>
+        <v>951.57500000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.154900</v>
+        <v>-88.154899999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>2946.282930</v>
+        <v>2946.2829299999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.818412</v>
+        <v>0.81841200000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.791000</v>
+        <v>958.79100000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.227800</v>
+        <v>-76.227800000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>2956.749012</v>
+        <v>2956.7490120000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.821319</v>
+        <v>0.82131900000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.404000</v>
+        <v>963.404</v>
       </c>
       <c r="AH21" s="1">
-        <v>-73.811500</v>
+        <v>-73.811499999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>2967.014215</v>
+        <v>2967.0142150000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.824171</v>
+        <v>0.82417099999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.519000</v>
+        <v>970.51900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.123200</v>
+        <v>-78.123199999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>2978.002103</v>
+        <v>2978.0021029999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.827223</v>
+        <v>0.82722300000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.374000</v>
+        <v>978.37400000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-89.375700</v>
+        <v>-89.375699999999995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>2988.738490</v>
+        <v>2988.7384900000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.830205</v>
+        <v>0.83020499999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>987.950000</v>
+        <v>987.95</v>
       </c>
       <c r="AW21" s="1">
-        <v>-106.339000</v>
+        <v>-106.339</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>2999.999696</v>
+        <v>2999.9996959999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.833333</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>995.957000</v>
+        <v>995.95699999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-121.322000</v>
+        <v>-121.322</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>3010.805040</v>
+        <v>3010.8050400000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.836335</v>
+        <v>0.83633500000000005</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.010000</v>
+        <v>1033.01</v>
       </c>
       <c r="BG21" s="1">
-        <v>-191.285000</v>
+        <v>-191.285</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>3021.405008</v>
+        <v>3021.4050080000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>0.839279</v>
       </c>
       <c r="BK21" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL21" s="1">
-        <v>-306.033000</v>
+        <v>-306.03300000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>3031.581921</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.842106</v>
+        <v>0.84210600000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.887000</v>
+        <v>-488.887</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>3042.184403</v>
+        <v>3042.1844030000002</v>
       </c>
       <c r="BT21" s="1">
         <v>0.845051</v>
       </c>
       <c r="BU21" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="BV21" s="1">
-        <v>-691.128000</v>
+        <v>-691.12800000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>3053.163880</v>
+        <v>3053.1638800000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.848101</v>
+        <v>0.84810099999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1452.030000</v>
+        <v>1452.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-906.665000</v>
+        <v>-906.66499999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>3066.082644</v>
+        <v>3066.0826440000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.851690</v>
+        <v>0.85168999999999995</v>
       </c>
       <c r="CE21" s="1">
-        <v>1804.340000</v>
+        <v>1804.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1419.980000</v>
+        <v>-1419.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>2893.953015</v>
+        <v>2893.9530150000001</v>
       </c>
       <c r="B22" s="1">
-        <v>0.803876</v>
+        <v>0.80387600000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>896.385000</v>
+        <v>896.38499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.391000</v>
+        <v>-199.39099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>2904.311963</v>
+        <v>2904.3119630000001</v>
       </c>
       <c r="G22" s="1">
-        <v>0.806753</v>
+        <v>0.80675300000000005</v>
       </c>
       <c r="H22" s="1">
-        <v>914.431000</v>
+        <v>914.43100000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.893000</v>
+        <v>-168.893</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>2914.727494</v>
+        <v>2914.7274940000002</v>
       </c>
       <c r="L22" s="1">
-        <v>0.809647</v>
+        <v>0.80964700000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>938.334000</v>
+        <v>938.33399999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.684000</v>
+        <v>-119.684</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>2925.581903</v>
+        <v>2925.5819029999998</v>
       </c>
       <c r="Q22" s="1">
         <v>0.812662</v>
       </c>
       <c r="R22" s="1">
-        <v>945.023000</v>
+        <v>945.02300000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>2936.086175</v>
+        <v>2936.0861749999999</v>
       </c>
       <c r="V22" s="1">
-        <v>0.815579</v>
+        <v>0.81557900000000005</v>
       </c>
       <c r="W22" s="1">
-        <v>951.605000</v>
+        <v>951.60500000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.096500</v>
+        <v>-88.096500000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>2946.632609</v>
+        <v>2946.6326089999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.818509</v>
+        <v>0.81850900000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.637000</v>
+        <v>958.63699999999994</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.212000</v>
+        <v>-76.212000000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>2957.093237</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.821415</v>
+        <v>0.82141500000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.403000</v>
+        <v>963.40300000000002</v>
       </c>
       <c r="AH22" s="1">
-        <v>-73.832500</v>
+        <v>-73.832499999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2967.363894</v>
+        <v>2967.3638940000001</v>
       </c>
       <c r="AK22" s="1">
         <v>0.824268</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.484000</v>
+        <v>970.48400000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.122800</v>
+        <v>-78.122799999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>2978.668743</v>
+        <v>2978.6687430000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.827408</v>
+        <v>0.82740800000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.387000</v>
+        <v>978.38699999999994</v>
       </c>
       <c r="AR22" s="1">
-        <v>-89.372800</v>
+        <v>-89.372799999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>2989.409614</v>
+        <v>2989.4096140000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.830392</v>
+        <v>0.83039200000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>987.958000</v>
+        <v>987.95799999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-106.316000</v>
+        <v>-106.316</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>3000.446586</v>
@@ -5771,814 +6187,814 @@
         <v>0.833457</v>
       </c>
       <c r="BA22" s="1">
-        <v>995.979000</v>
+        <v>995.97900000000004</v>
       </c>
       <c r="BB22" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>3011.159646</v>
+        <v>3011.1596460000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.836433</v>
+        <v>0.83643299999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1032.960000</v>
+        <v>1032.96</v>
       </c>
       <c r="BG22" s="1">
-        <v>-191.290000</v>
+        <v>-191.29</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>3021.804286</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.839390</v>
+        <v>0.83938999999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL22" s="1">
-        <v>-306.020000</v>
+        <v>-306.02</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>3031.981201</v>
+        <v>3031.9812010000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.842217</v>
+        <v>0.84221699999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.906000</v>
+        <v>-488.90600000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>3042.866899</v>
+        <v>3042.8668990000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.845241</v>
+        <v>0.84524100000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="BV22" s="1">
-        <v>-691.042000</v>
+        <v>-691.04200000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>3053.613130</v>
+        <v>3053.6131300000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.848226</v>
+        <v>0.84822600000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1452.090000</v>
+        <v>1452.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-906.585000</v>
+        <v>-906.58500000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>3066.622292</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.851840</v>
+        <v>0.85184000000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>1805.720000</v>
+        <v>1805.72</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1421.110000</v>
+        <v>-1421.11</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>2894.294796</v>
+        <v>2894.2947960000001</v>
       </c>
       <c r="B23" s="1">
-        <v>0.803971</v>
+        <v>0.80397099999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>896.380000</v>
+        <v>896.38</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.325000</v>
+        <v>-199.32499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2904.656185</v>
+        <v>2904.6561849999998</v>
       </c>
       <c r="G23" s="1">
-        <v>0.806849</v>
+        <v>0.80684900000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>914.537000</v>
+        <v>914.53700000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.897000</v>
+        <v>-168.89699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2915.419373</v>
+        <v>2915.4193730000002</v>
       </c>
       <c r="L23" s="1">
-        <v>0.809839</v>
+        <v>0.80983899999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>938.160000</v>
+        <v>938.16</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.743000</v>
+        <v>-119.74299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>2925.964813</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.812768</v>
+        <v>0.81276800000000005</v>
       </c>
       <c r="R23" s="1">
-        <v>945.040000</v>
+        <v>945.04</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.311000</v>
+        <v>-103.31100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>2936.428416</v>
+        <v>2936.4284160000002</v>
       </c>
       <c r="V23" s="1">
-        <v>0.815675</v>
+        <v>0.81567500000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>951.597000</v>
+        <v>951.59699999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.093800</v>
+        <v>-88.093800000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>2946.982289</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.818606</v>
+        <v>0.81860599999999994</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.749000</v>
+        <v>958.74900000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.335000</v>
+        <v>-76.334999999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>2957.438474</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.821511</v>
+        <v>0.82151099999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.417000</v>
+        <v>963.41700000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-73.793700</v>
+        <v>-73.793700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2968.021623</v>
+        <v>2968.0216230000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.824450</v>
+        <v>0.82445000000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.477000</v>
+        <v>970.47699999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.107900</v>
+        <v>-78.107900000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>2979.078935</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.827522</v>
+        <v>0.82752199999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.382000</v>
+        <v>978.38199999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-89.366400</v>
+        <v>-89.366399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>2989.864442</v>
+        <v>2989.8644420000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.830518</v>
+        <v>0.83051799999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>987.951000</v>
+        <v>987.95100000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-106.347000</v>
+        <v>-106.34699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>3000.804666</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.833557</v>
+        <v>0.83355699999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>995.975000</v>
+        <v>995.97500000000002</v>
       </c>
       <c r="BB23" s="1">
-        <v>-121.329000</v>
+        <v>-121.32899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>3011.522247</v>
+        <v>3011.5222469999999</v>
       </c>
       <c r="BE23" s="1">
         <v>0.836534</v>
       </c>
       <c r="BF23" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG23" s="1">
-        <v>-191.291000</v>
+        <v>-191.291</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>3022.181246</v>
+        <v>3022.1812460000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.839495</v>
+        <v>0.83949499999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1096.550000</v>
+        <v>1096.55</v>
       </c>
       <c r="BL23" s="1">
-        <v>-306.023000</v>
+        <v>-306.02300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>3032.398832</v>
+        <v>3032.3988319999999</v>
       </c>
       <c r="BO23" s="1">
         <v>0.842333</v>
       </c>
       <c r="BP23" s="1">
-        <v>1200.440000</v>
+        <v>1200.44</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.908000</v>
+        <v>-488.90800000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>3043.057860</v>
+        <v>3043.0578599999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.845294</v>
+        <v>0.84529399999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="BV23" s="1">
-        <v>-691.086000</v>
+        <v>-691.08600000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>3054.030852</v>
+        <v>3054.0308519999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.848342</v>
+        <v>0.84834200000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1452.020000</v>
+        <v>1452.02</v>
       </c>
       <c r="CA23" s="1">
-        <v>-906.628000</v>
+        <v>-906.62800000000004</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>3067.162932</v>
+        <v>3067.1629320000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.851990</v>
+        <v>0.85199000000000003</v>
       </c>
       <c r="CE23" s="1">
-        <v>1805.320000</v>
+        <v>1805.32</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1419.210000</v>
+        <v>-1419.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>2894.976262</v>
+        <v>2894.9762620000001</v>
       </c>
       <c r="B24" s="1">
-        <v>0.804160</v>
+        <v>0.80415999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>896.215000</v>
+        <v>896.21500000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.507000</v>
+        <v>-199.50700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>2905.345129</v>
+        <v>2905.3451289999998</v>
       </c>
       <c r="G24" s="1">
-        <v>0.807040</v>
+        <v>0.80703999999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>914.480000</v>
+        <v>914.48</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.782000</v>
+        <v>-168.78200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2915.763130</v>
+        <v>2915.7631299999998</v>
       </c>
       <c r="L24" s="1">
-        <v>0.809934</v>
+        <v>0.80993400000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>938.288000</v>
+        <v>938.28800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.715000</v>
+        <v>-119.715</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>2926.313502</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.812865</v>
+        <v>0.81286499999999995</v>
       </c>
       <c r="R24" s="1">
-        <v>945.070000</v>
+        <v>945.07</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.330000</v>
+        <v>-103.33</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>2936.770191</v>
+        <v>2936.7701910000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.815769</v>
+        <v>0.81576899999999997</v>
       </c>
       <c r="W24" s="1">
-        <v>951.612000</v>
+        <v>951.61199999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.032400</v>
+        <v>-88.032399999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>2947.638496</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.818788</v>
+        <v>0.81878799999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.719000</v>
+        <v>958.71900000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.275400</v>
+        <v>-76.275400000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>2958.095651</v>
+        <v>2958.0956510000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.821693</v>
+        <v>0.82169300000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.414000</v>
+        <v>963.41399999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-73.837000</v>
+        <v>-73.837000000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2968.408005</v>
+        <v>2968.4080049999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.824558</v>
+        <v>0.82455800000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.498000</v>
+        <v>970.49800000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.132200</v>
+        <v>-78.132199999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>2979.460327</v>
+        <v>2979.4603269999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.827628</v>
+        <v>0.82762800000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.351000</v>
+        <v>978.351</v>
       </c>
       <c r="AR24" s="1">
-        <v>-89.346600</v>
+        <v>-89.346599999999995</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>2990.227976</v>
+        <v>2990.2279760000001</v>
       </c>
       <c r="AU24" s="1">
         <v>0.830619</v>
       </c>
       <c r="AV24" s="1">
-        <v>987.943000</v>
+        <v>987.94299999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-106.321000</v>
+        <v>-106.321</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>3001.152361</v>
+        <v>3001.1523609999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.833653</v>
+        <v>0.83365299999999998</v>
       </c>
       <c r="BA24" s="1">
-        <v>995.981000</v>
+        <v>995.98099999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>3011.943829</v>
+        <v>3011.9438289999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.836651</v>
+        <v>0.83665100000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1032.980000</v>
+        <v>1032.98</v>
       </c>
       <c r="BG24" s="1">
-        <v>-191.262000</v>
+        <v>-191.262</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>3022.596893</v>
+        <v>3022.5968929999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.839610</v>
+        <v>0.83960999999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL24" s="1">
-        <v>-306.010000</v>
+        <v>-306.01</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>3032.798259</v>
+        <v>3032.7982590000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.842444</v>
+        <v>0.84244399999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.908000</v>
+        <v>-488.90800000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>3043.469043</v>
+        <v>3043.4690430000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.845408</v>
+        <v>0.84540800000000005</v>
       </c>
       <c r="BU24" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="BV24" s="1">
-        <v>-691.119000</v>
+        <v>-691.11900000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>3054.454936</v>
+        <v>3054.4549360000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.848460</v>
+        <v>0.84845999999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1452.010000</v>
+        <v>1452.01</v>
       </c>
       <c r="CA24" s="1">
-        <v>-906.680000</v>
+        <v>-906.68</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>3067.700099</v>
+        <v>3067.7000990000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.852139</v>
+        <v>0.85213899999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1804.690000</v>
+        <v>1804.69</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1420.800000</v>
+        <v>-1420.8</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>2895.319527</v>
+        <v>2895.3195270000001</v>
       </c>
       <c r="B25" s="1">
-        <v>0.804255</v>
+        <v>0.80425500000000005</v>
       </c>
       <c r="C25" s="1">
-        <v>896.383000</v>
+        <v>896.38300000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.487000</v>
+        <v>-199.48699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2905.690840</v>
+        <v>2905.6908400000002</v>
       </c>
       <c r="G25" s="1">
-        <v>0.807136</v>
+        <v>0.80713599999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>914.675000</v>
+        <v>914.67499999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.869000</v>
+        <v>-168.869</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2916.111322</v>
+        <v>2916.1113220000002</v>
       </c>
       <c r="L25" s="1">
-        <v>0.810031</v>
+        <v>0.81003099999999995</v>
       </c>
       <c r="M25" s="1">
-        <v>938.360000</v>
+        <v>938.36</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.771000</v>
+        <v>-119.771</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>2926.966732</v>
+        <v>2926.9667319999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.813046</v>
+        <v>0.81304600000000005</v>
       </c>
       <c r="R25" s="1">
-        <v>945.024000</v>
+        <v>945.024</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.368000</v>
+        <v>-103.36799999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>2937.424878</v>
+        <v>2937.4248779999998</v>
       </c>
       <c r="V25" s="1">
-        <v>0.815951</v>
+        <v>0.81595099999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>951.649000</v>
+        <v>951.649</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.122600</v>
+        <v>-88.122600000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2948.028848</v>
+        <v>2948.0288479999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.818897</v>
+        <v>0.81889699999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.771000</v>
+        <v>958.77099999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.304500</v>
+        <v>-76.304500000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>2958.576274</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.821827</v>
+        <v>0.82182699999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.387000</v>
+        <v>963.38699999999994</v>
       </c>
       <c r="AH25" s="1">
-        <v>-73.805100</v>
+        <v>-73.805099999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>2968.758181</v>
+        <v>2968.7581810000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.824655</v>
+        <v>0.82465500000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.508000</v>
+        <v>970.50800000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.124400</v>
+        <v>-78.124399999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>2979.821414</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.827728</v>
+        <v>0.82772800000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.379000</v>
+        <v>978.37900000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-89.359400</v>
+        <v>-89.359399999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>2990.596999</v>
+        <v>2990.5969989999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.830721</v>
+        <v>0.83072100000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>987.938000</v>
+        <v>987.93799999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-106.317000</v>
+        <v>-106.31699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>3001.571481</v>
+        <v>3001.5714809999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.833770</v>
+        <v>0.83377000000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>995.990000</v>
+        <v>995.99</v>
       </c>
       <c r="BB25" s="1">
-        <v>-121.342000</v>
+        <v>-121.342</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>3012.246378</v>
+        <v>3012.2463779999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.836735</v>
+        <v>0.83673500000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG25" s="1">
-        <v>-191.297000</v>
+        <v>-191.297</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>3022.956526</v>
+        <v>3022.9565259999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.839710</v>
+        <v>0.83970999999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1096.540000</v>
+        <v>1096.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-306.034000</v>
+        <v>-306.03399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>3033.220703</v>
@@ -6587,180 +7003,180 @@
         <v>0.842561</v>
       </c>
       <c r="BP25" s="1">
-        <v>1200.460000</v>
+        <v>1200.46</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.891000</v>
+        <v>-488.89100000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>3043.897357</v>
+        <v>3043.8973569999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.845527</v>
+        <v>0.84552700000000003</v>
       </c>
       <c r="BU25" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-691.024000</v>
+        <v>-691.024</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3054.903316</v>
+        <v>3054.9033159999999</v>
       </c>
       <c r="BY25" s="1">
         <v>0.848584</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1451.910000</v>
+        <v>1451.91</v>
       </c>
       <c r="CA25" s="1">
-        <v>-906.627000</v>
+        <v>-906.62699999999995</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>3068.243229</v>
+        <v>3068.2432290000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.852290</v>
+        <v>0.85228999999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1806.010000</v>
+        <v>1806.01</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1420.230000</v>
+        <v>-1420.23</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>2895.664245</v>
+        <v>2895.6642449999999</v>
       </c>
       <c r="B26" s="1">
-        <v>0.804351</v>
+        <v>0.80435100000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>896.390000</v>
+        <v>896.39</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.555000</v>
+        <v>-199.55500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>2906.041016</v>
+        <v>2906.0410160000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.807234</v>
+        <v>0.80723400000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>914.593000</v>
+        <v>914.59299999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.960000</v>
+        <v>-168.96</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>2916.761545</v>
+        <v>2916.7615449999998</v>
       </c>
       <c r="L26" s="1">
-        <v>0.810212</v>
+        <v>0.81021200000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>938.285000</v>
+        <v>938.28499999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.762000</v>
+        <v>-119.762</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>2927.360096</v>
+        <v>2927.3600959999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.813156</v>
+        <v>0.81315599999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>945.023000</v>
+        <v>945.02300000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.348000</v>
+        <v>-103.348</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>2937.799890</v>
+        <v>2937.7998899999998</v>
       </c>
       <c r="V26" s="1">
         <v>0.816056</v>
       </c>
       <c r="W26" s="1">
-        <v>951.612000</v>
+        <v>951.61199999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.171100</v>
+        <v>-88.171099999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>2948.378527</v>
+        <v>2948.3785269999998</v>
       </c>
       <c r="AA26" s="1">
         <v>0.818994</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.702000</v>
+        <v>958.702</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.256400</v>
+        <v>-76.256399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>2958.848609</v>
+        <v>2958.8486090000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.821902</v>
+        <v>0.82190200000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.423000</v>
+        <v>963.423</v>
       </c>
       <c r="AH26" s="1">
-        <v>-73.832000</v>
+        <v>-73.831999999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>2969.107828</v>
+        <v>2969.1078280000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.824752</v>
+        <v>0.82475200000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.477000</v>
+        <v>970.47699999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.142400</v>
+        <v>-78.142399999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>2980.234582</v>
@@ -6769,135 +7185,136 @@
         <v>0.827843</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.372000</v>
+        <v>978.37199999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-89.360500</v>
+        <v>-89.360500000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>2991.015660</v>
+        <v>2991.01566</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.830838</v>
+        <v>0.83083799999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>987.945000</v>
+        <v>987.94500000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-106.254000</v>
+        <v>-106.254</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>3001.882474</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.833856</v>
+        <v>0.83385600000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>995.981000</v>
+        <v>995.98099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-121.336000</v>
+        <v>-121.336</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>3012.606970</v>
+        <v>3012.6069699999998</v>
       </c>
       <c r="BE26" s="1">
         <v>0.836835</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.000000</v>
+        <v>1033</v>
       </c>
       <c r="BG26" s="1">
-        <v>-191.283000</v>
+        <v>-191.28299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>3023.334445</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.839815</v>
+        <v>0.83981499999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL26" s="1">
-        <v>-306.018000</v>
+        <v>-306.01799999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>3033.616512</v>
+        <v>3033.6165120000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.842671</v>
+        <v>0.84267099999999995</v>
       </c>
       <c r="BP26" s="1">
-        <v>1200.470000</v>
+        <v>1200.47</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.927000</v>
+        <v>-488.92700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>3044.321200</v>
+        <v>3044.3211999999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.845645</v>
+        <v>0.84564499999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-691.067000</v>
+        <v>-691.06700000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>3055.331860</v>
+        <v>3055.3318599999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.848703</v>
+        <v>0.84870299999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1452.000000</v>
+        <v>1452</v>
       </c>
       <c r="CA26" s="1">
-        <v>-906.679000</v>
+        <v>-906.67899999999997</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>3068.783856</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.852440</v>
+        <v>0.85243999999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1804.590000</v>
+        <v>1804.59</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1419.790000</v>
+        <v>-1419.79</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>